--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_first_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_first_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAAD3C68-2D8D-4100-A4E4-4AAE44DBCADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1226A41A-447E-435C-B696-5FEADE6AD808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{5190FF24-6727-4E24-926D-5FD401E23EBF}"/>
   </bookViews>
@@ -528,22 +528,22 @@
         <v>16</v>
       </c>
       <c r="J2">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="M2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>0.11904761904761904</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -557,40 +557,40 @@
         <v>24</v>
       </c>
       <c r="D3">
-        <v>0.20833333333333334</v>
+        <v>0.125</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>0.20833333333333334</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.20833333333333334</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0.20833333333333334</v>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="O3">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -633,40 +633,40 @@
         <v>43</v>
       </c>
       <c r="D5">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="G5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0.11627906976744186</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5">
-        <v>0.11627906976744186</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="K5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.11627906976744186</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>0.11627906976744186</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -680,16 +680,16 @@
         <v>42</v>
       </c>
       <c r="D6">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.11904761904761904</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6">
         <v>0.16666666666666666</v>
@@ -698,16 +698,16 @@
         <v>7</v>
       </c>
       <c r="J6">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N6">
         <v>0.16666666666666666</v>
@@ -727,40 +727,40 @@
         <v>25</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="E7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -780,22 +780,22 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>9.6153846153846159E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>9.6153846153846159E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J8">
-        <v>9.6153846153846159E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="K8">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L8">
         <v>0.11538461538461539</v>
@@ -879,16 +879,16 @@
         <v>38</v>
       </c>
       <c r="D11">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H11">
         <v>0.13157894736842105</v>
@@ -897,10 +897,10 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>0.13157894736842105</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11">
         <v>0.21052631578947367</v>
@@ -979,16 +979,16 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="G13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H13">
-        <v>0.17857142857142858</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>0.17857142857142858</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.625</v>
+        <v>0.25</v>
       </c>
       <c r="O14">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1067,40 +1067,40 @@
         <v>21</v>
       </c>
       <c r="D15">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="E15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0.23809523809523808</v>
+        <v>0.19047619047619047</v>
       </c>
       <c r="I15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J15">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.23809523809523808</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.23809523809523808</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="O15">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1114,22 +1114,22 @@
         <v>22</v>
       </c>
       <c r="D16">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="G16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="I16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1138,16 +1138,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="M16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.22727272727272727</v>
+        <v>4.5454545454545456E-2</v>
       </c>
       <c r="O16">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -1161,16 +1161,16 @@
         <v>16</v>
       </c>
       <c r="D17">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3125</v>
+        <v>0.25</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17">
         <v>0.375</v>
@@ -1185,16 +1185,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="O17">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -1208,16 +1208,16 @@
         <v>26</v>
       </c>
       <c r="D18">
-        <v>0.19230769230769232</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F18">
-        <v>0.19230769230769232</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="G18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H18">
         <v>0.26923076923076922</v>
@@ -1232,16 +1232,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.19230769230769232</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="M18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N18">
-        <v>0.19230769230769232</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="O18">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -1302,16 +1302,16 @@
         <v>52</v>
       </c>
       <c r="D20">
-        <v>9.6153846153846159E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="E20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>9.6153846153846159E-2</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="G20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H20">
         <v>0.11538461538461539</v>
@@ -1320,16 +1320,16 @@
         <v>6</v>
       </c>
       <c r="J20">
-        <v>9.6153846153846159E-2</v>
+        <v>1.9230769230769232E-2</v>
       </c>
       <c r="K20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>9.6153846153846159E-2</v>
+        <v>3.8461538461538464E-2</v>
       </c>
       <c r="M20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>9.6153846153846159E-2</v>
@@ -1373,16 +1373,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.11904761904761904</v>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="M21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.11904761904761904</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -1414,16 +1414,16 @@
         <v>9</v>
       </c>
       <c r="J22">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="K22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.11627906976744186</v>
+        <v>2.3255813953488372E-2</v>
       </c>
       <c r="M22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0.13953488372093023</v>
@@ -1472,40 +1472,40 @@
         <v>39</v>
       </c>
       <c r="D24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H24">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="I24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="M24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="O24">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1548,16 +1548,16 @@
         <v>29</v>
       </c>
       <c r="D26">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H26">
         <v>0.44827586206896552</v>
@@ -1566,16 +1566,16 @@
         <v>13</v>
       </c>
       <c r="J26">
-        <v>0.17241379310344829</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="M26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N26">
         <v>0.2413793103448276</v>
@@ -1671,16 +1671,16 @@
         <v>45</v>
       </c>
       <c r="D29">
-        <v>0.1111111111111111</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="E29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H29">
         <v>0.15555555555555556</v>
@@ -1718,10 +1718,10 @@
         <v>42</v>
       </c>
       <c r="D30">
-        <v>0.11904761904761904</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="E30">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30">
         <v>0.11904761904761904</v>
@@ -1765,10 +1765,10 @@
         <v>34</v>
       </c>
       <c r="D31">
-        <v>0.14705882352941177</v>
+        <v>5.8823529411764705E-2</v>
       </c>
       <c r="E31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>0.17647058823529413</v>
@@ -1783,10 +1783,10 @@
         <v>9</v>
       </c>
       <c r="J31">
-        <v>0.14705882352941177</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="K31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31">
         <v>0.20588235294117646</v>
@@ -1812,16 +1812,16 @@
         <v>62</v>
       </c>
       <c r="D32">
-        <v>8.0645161290322578E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="E32">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>8.0645161290322578E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H32">
         <v>8.0645161290322578E-2</v>
@@ -1830,22 +1830,22 @@
         <v>5</v>
       </c>
       <c r="J32">
-        <v>8.0645161290322578E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="K32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>8.0645161290322578E-2</v>
+        <v>1.6129032258064516E-2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32">
-        <v>8.0645161290322578E-2</v>
+        <v>4.8387096774193547E-2</v>
       </c>
       <c r="O32">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1888,10 +1888,10 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="E34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>0.12820512820512819</v>
@@ -1906,22 +1906,22 @@
         <v>6</v>
       </c>
       <c r="J34">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="K34">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0.12820512820512819</v>
+        <v>7.6923076923076927E-2</v>
       </c>
       <c r="M34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="O34">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -1964,10 +1964,10 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E36">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F36">
         <v>0.35</v>
@@ -1982,22 +1982,22 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="K36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="M36">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>0.25</v>
+        <v>0.15</v>
       </c>
       <c r="O36">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2011,28 +2011,28 @@
         <v>25</v>
       </c>
       <c r="D37">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="G37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H37">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="I37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J37">
-        <v>0.2</v>
+        <v>0.08</v>
       </c>
       <c r="K37">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>0.2</v>
@@ -2058,22 +2058,22 @@
         <v>16</v>
       </c>
       <c r="D38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="I38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2082,16 +2082,16 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.3125</v>
+        <v>6.25E-2</v>
       </c>
       <c r="M38">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0.3125</v>
+        <v>0.1875</v>
       </c>
       <c r="O38">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -2105,40 +2105,40 @@
         <v>10</v>
       </c>
       <c r="D39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F39">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="G39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="I39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="M39">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N39">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="O39">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -2152,34 +2152,34 @@
         <v>32</v>
       </c>
       <c r="D40">
-        <v>0.15625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="E40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F40">
-        <v>0.15625</v>
+        <v>6.25E-2</v>
       </c>
       <c r="G40">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>0.15625</v>
+        <v>0.125</v>
       </c>
       <c r="I40">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J40">
-        <v>0.15625</v>
+        <v>3.125E-2</v>
       </c>
       <c r="K40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>0.15625</v>
+        <v>9.375E-2</v>
       </c>
       <c r="M40">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N40">
         <v>0.15625</v>
@@ -2199,22 +2199,22 @@
         <v>41</v>
       </c>
       <c r="D41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="I41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>0.12195121951219512</v>
+        <v>2.4390243902439025E-2</v>
       </c>
       <c r="O41">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2246,16 +2246,16 @@
         <v>46</v>
       </c>
       <c r="D42">
-        <v>0.10869565217391304</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="E42">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F42">
-        <v>0.10869565217391304</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="G42">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H42">
         <v>0.10869565217391304</v>
@@ -2264,10 +2264,10 @@
         <v>5</v>
       </c>
       <c r="J42">
-        <v>0.10869565217391304</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0.13043478260869565</v>
@@ -2293,10 +2293,10 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>5.2083333333333336E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="E43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>6.25E-2</v>
@@ -2311,10 +2311,10 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <v>5.2083333333333336E-2</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="K43">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L43">
         <v>0.10416666666666667</v>
@@ -2340,16 +2340,16 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>0.2</v>
+        <v>0.04</v>
       </c>
       <c r="E44">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H44">
         <v>0.28000000000000003</v>
@@ -2370,10 +2370,10 @@
         <v>0</v>
       </c>
       <c r="N44">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="O44">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -2405,22 +2405,22 @@
         <v>13</v>
       </c>
       <c r="J45">
-        <v>0.17857142857142858</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="K45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L45">
-        <v>0.17857142857142858</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="M45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N45">
-        <v>0.17857142857142858</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -2434,10 +2434,10 @@
         <v>22</v>
       </c>
       <c r="D46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F46">
         <v>0.31818181818181818</v>
@@ -2452,16 +2452,16 @@
         <v>8</v>
       </c>
       <c r="J46">
-        <v>0.22727272727272727</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="K46">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L46">
-        <v>0.22727272727272727</v>
+        <v>0.18181818181818182</v>
       </c>
       <c r="M46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46">
         <v>0.22727272727272727</v>
@@ -2481,16 +2481,16 @@
         <v>33</v>
       </c>
       <c r="D47">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="E47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F47">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H47">
         <v>0.18181818181818182</v>
@@ -2499,22 +2499,22 @@
         <v>6</v>
       </c>
       <c r="J47">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="K47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L47">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="M47">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="O47">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2528,16 +2528,16 @@
         <v>39</v>
       </c>
       <c r="D48">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="E48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F48">
-        <v>0.12820512820512819</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H48">
         <v>0.12820512820512819</v>
@@ -2546,16 +2546,16 @@
         <v>5</v>
       </c>
       <c r="J48">
-        <v>0.12820512820512819</v>
+        <v>5.128205128205128E-2</v>
       </c>
       <c r="K48">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L48">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="M48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48">
         <v>0.15384615384615385</v>
@@ -2581,28 +2581,28 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>8.9285714285714288E-2</v>
+        <v>1.7857142857142856E-2</v>
       </c>
       <c r="G49">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>8.9285714285714288E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="I49">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49">
-        <v>8.9285714285714288E-2</v>
+        <v>3.5714285714285712E-2</v>
       </c>
       <c r="K49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>8.9285714285714288E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="M49">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N49">
         <v>8.9285714285714288E-2</v>
@@ -2640,22 +2640,22 @@
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.10638297872340426</v>
+        <v>2.1276595744680851E-2</v>
       </c>
       <c r="K50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>0.10638297872340426</v>
+        <v>4.2553191489361701E-2</v>
       </c>
       <c r="M50">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N50">
-        <v>0.10638297872340426</v>
+        <v>8.5106382978723402E-2</v>
       </c>
       <c r="O50">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2669,28 +2669,28 @@
         <v>45</v>
       </c>
       <c r="D51">
-        <v>0.1111111111111111</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F51">
-        <v>0.1111111111111111</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H51">
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="I51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51">
-        <v>0.1111111111111111</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="K51">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L51">
         <v>0.1111111111111111</v>
@@ -2716,22 +2716,22 @@
         <v>40</v>
       </c>
       <c r="D52">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="E52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="G52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H52">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="I52">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2740,10 +2740,10 @@
         <v>0</v>
       </c>
       <c r="L52">
-        <v>0.125</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M52">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N52">
         <v>0.125</v>
@@ -2763,16 +2763,16 @@
         <v>33</v>
       </c>
       <c r="D53">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="E53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F53">
-        <v>0.15151515151515152</v>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G53">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H53">
         <v>0.15151515151515152</v>
@@ -2787,16 +2787,16 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>0.15151515151515152</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="M53">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N53">
-        <v>0.15151515151515152</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="O53">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -2810,16 +2810,16 @@
         <v>38</v>
       </c>
       <c r="D54">
-        <v>0.13157894736842105</v>
+        <v>5.2631578947368418E-2</v>
       </c>
       <c r="E54">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54">
-        <v>0.13157894736842105</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="G54">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>0.13157894736842105</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="N54">
-        <v>0.13157894736842105</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="O54">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -2863,28 +2863,28 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H55">
-        <v>0.17241379310344829</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="I55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J55">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="K55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L55">
-        <v>0.17241379310344829</v>
+        <v>6.8965517241379309E-2</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N55">
         <v>0.17241379310344829</v>

--- a/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_first_10.xlsx
+++ b/Paper Rebuttal/Adjustments_12_2019/Data/results_significance_P_first_10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lccam\Documents\CU Boulder\Donaldson Lab\Imaging-Paper\Paper Rebuttal\Adjustments_12_2019\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1226A41A-447E-435C-B696-5FEADE6AD808}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4DF0E5-4B52-4322-804C-5424867A2F41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8964" xr2:uid="{5190FF24-6727-4E24-926D-5FD401E23EBF}"/>
   </bookViews>
@@ -522,16 +522,16 @@
         <v>13</v>
       </c>
       <c r="H2">
-        <v>0.38095238095238093</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="I2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2">
-        <v>2.3809523809523808E-2</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>2.3809523809523808E-2</v>
@@ -569,10 +569,10 @@
         <v>4</v>
       </c>
       <c r="H3">
-        <v>0.16666666666666666</v>
+        <v>0.20833333333333334</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3">
         <v>4.1666666666666664E-2</v>
@@ -686,10 +686,10 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>9.5238095238095233E-2</v>
+        <v>0.11904761904761904</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H6">
         <v>0.16666666666666666</v>
@@ -704,16 +704,16 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>7.1428571428571425E-2</v>
+        <v>9.5238095238095233E-2</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N6">
-        <v>0.16666666666666666</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="O6">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -792,10 +792,10 @@
         <v>2</v>
       </c>
       <c r="J8">
-        <v>7.6923076923076927E-2</v>
+        <v>5.7692307692307696E-2</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>0.11538461538461539</v>
@@ -897,16 +897,16 @@
         <v>5</v>
       </c>
       <c r="J11">
-        <v>0.10526315789473684</v>
+        <v>7.8947368421052627E-2</v>
       </c>
       <c r="K11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.21052631578947367</v>
+        <v>0.18421052631578946</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N11">
         <v>0.21052631578947367</v>
@@ -926,10 +926,10 @@
         <v>39</v>
       </c>
       <c r="D12">
-        <v>0.17948717948717949</v>
+        <v>0.15384615384615385</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <v>0.25641025641025639</v>
@@ -956,10 +956,10 @@
         <v>13</v>
       </c>
       <c r="N12">
-        <v>0.38461538461538464</v>
+        <v>0.41025641025641024</v>
       </c>
       <c r="O12">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -997,10 +997,10 @@
         <v>5</v>
       </c>
       <c r="L13">
-        <v>0.21428571428571427</v>
+        <v>0.17857142857142858</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N13">
         <v>0.25</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.25</v>
+        <v>0.375</v>
       </c>
       <c r="O14">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1167,16 +1167,16 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>0.25</v>
+        <v>0.3125</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17">
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="I17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1267,10 +1267,10 @@
         <v>18</v>
       </c>
       <c r="H19">
-        <v>0.37254901960784315</v>
+        <v>0.39215686274509803</v>
       </c>
       <c r="I19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J19">
         <v>9.8039215686274508E-2</v>
@@ -1285,10 +1285,10 @@
         <v>7</v>
       </c>
       <c r="N19">
-        <v>0.21568627450980393</v>
+        <v>0.23529411764705882</v>
       </c>
       <c r="O19">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -1332,10 +1332,10 @@
         <v>2</v>
       </c>
       <c r="N20">
-        <v>9.6153846153846159E-2</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="O20">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -1349,16 +1349,16 @@
         <v>42</v>
       </c>
       <c r="D21">
-        <v>0.19047619047619047</v>
+        <v>0.21428571428571427</v>
       </c>
       <c r="E21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F21">
-        <v>0.2857142857142857</v>
+        <v>0.30952380952380953</v>
       </c>
       <c r="G21">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21">
         <v>0.30952380952380953</v>
@@ -1373,10 +1373,10 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.3809523809523808E-2</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>7.1428571428571425E-2</v>
@@ -1408,10 +1408,10 @@
         <v>7</v>
       </c>
       <c r="H22">
-        <v>0.20930232558139536</v>
+        <v>0.23255813953488372</v>
       </c>
       <c r="I22">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J22">
         <v>2.3255813953488372E-2</v>
@@ -1420,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="L22">
-        <v>2.3255813953488372E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N22">
         <v>0.13953488372093023</v>
@@ -1490,10 +1490,10 @@
         <v>2</v>
       </c>
       <c r="J24">
-        <v>2.564102564102564E-2</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>2.564102564102564E-2</v>
@@ -1502,10 +1502,10 @@
         <v>1</v>
       </c>
       <c r="N24">
-        <v>0.10256410256410256</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="O24">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -1560,10 +1560,10 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>0.44827586206896552</v>
+        <v>0.41379310344827586</v>
       </c>
       <c r="I26">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J26">
         <v>3.4482758620689655E-2</v>
@@ -1624,10 +1624,10 @@
         <v>52</v>
       </c>
       <c r="D28">
-        <v>0.15384615384615385</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F28">
         <v>0.21153846153846154</v>
@@ -1642,16 +1642,16 @@
         <v>12</v>
       </c>
       <c r="J28">
-        <v>0.21153846153846154</v>
+        <v>0.19230769230769232</v>
       </c>
       <c r="K28">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L28">
-        <v>0.25</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N28">
         <v>0.30769230769230771</v>
@@ -1677,22 +1677,22 @@
         <v>1</v>
       </c>
       <c r="F29">
-        <v>8.8888888888888892E-2</v>
+        <v>6.6666666666666666E-2</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29">
+        <v>0.17777777777777778</v>
+      </c>
+      <c r="I29">
+        <v>8</v>
+      </c>
+      <c r="J29">
         <v>0.15555555555555556</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>7</v>
-      </c>
-      <c r="J29">
-        <v>0.17777777777777778</v>
-      </c>
-      <c r="K29">
-        <v>8</v>
       </c>
       <c r="L29">
         <v>0.24444444444444444</v>
@@ -1701,10 +1701,10 @@
         <v>11</v>
       </c>
       <c r="N29">
-        <v>0.31111111111111112</v>
+        <v>0.28888888888888886</v>
       </c>
       <c r="O29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -1724,10 +1724,10 @@
         <v>4</v>
       </c>
       <c r="F30">
-        <v>0.11904761904761904</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H30">
         <v>0.21428571428571427</v>
@@ -1742,10 +1742,10 @@
         <v>6</v>
       </c>
       <c r="L30">
-        <v>0.14285714285714285</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N30">
         <v>0.23809523809523808</v>
@@ -1771,16 +1771,16 @@
         <v>2</v>
       </c>
       <c r="F31">
-        <v>0.17647058823529413</v>
+        <v>0.14705882352941177</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>0.26470588235294118</v>
+        <v>0.29411764705882354</v>
       </c>
       <c r="I31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J31">
         <v>0.11764705882352941</v>
@@ -1824,10 +1824,10 @@
         <v>3</v>
       </c>
       <c r="H32">
-        <v>8.0645161290322578E-2</v>
+        <v>9.6774193548387094E-2</v>
       </c>
       <c r="I32">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J32">
         <v>1.6129032258064516E-2</v>
@@ -1836,16 +1836,16 @@
         <v>1</v>
       </c>
       <c r="L32">
-        <v>1.6129032258064516E-2</v>
+        <v>3.2258064516129031E-2</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>4.8387096774193547E-2</v>
+        <v>6.4516129032258063E-2</v>
       </c>
       <c r="O32">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -1900,22 +1900,22 @@
         <v>5</v>
       </c>
       <c r="H34">
-        <v>0.15384615384615385</v>
+        <v>0.20512820512820512</v>
       </c>
       <c r="I34">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J34">
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
         <v>5.128205128205128E-2</v>
       </c>
-      <c r="K34">
-        <v>2</v>
-      </c>
-      <c r="L34">
-        <v>7.6923076923076927E-2</v>
-      </c>
       <c r="M34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N34">
         <v>0.10256410256410256</v>
@@ -1964,16 +1964,16 @@
         <v>20</v>
       </c>
       <c r="D36">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="E36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F36">
-        <v>0.35</v>
+        <v>0.45</v>
       </c>
       <c r="G36">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H36">
         <v>0.5</v>
@@ -1982,10 +1982,10 @@
         <v>10</v>
       </c>
       <c r="J36">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L36">
         <v>0.1</v>
@@ -1994,10 +1994,10 @@
         <v>2</v>
       </c>
       <c r="N36">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="O36">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -2158,10 +2158,10 @@
         <v>2</v>
       </c>
       <c r="F40">
-        <v>6.25E-2</v>
+        <v>9.375E-2</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40">
         <v>0.125</v>
@@ -2176,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="L40">
-        <v>9.375E-2</v>
+        <v>0.125</v>
       </c>
       <c r="M40">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40">
         <v>0.15625</v>
@@ -2229,10 +2229,10 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2.4390243902439025E-2</v>
+        <v>4.878048780487805E-2</v>
       </c>
       <c r="O41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -2293,16 +2293,16 @@
         <v>96</v>
       </c>
       <c r="D43">
-        <v>4.1666666666666664E-2</v>
+        <v>3.125E-2</v>
       </c>
       <c r="E43">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43">
-        <v>6.25E-2</v>
+        <v>7.2916666666666671E-2</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H43">
         <v>8.3333333333333329E-2</v>
@@ -2311,10 +2311,10 @@
         <v>8</v>
       </c>
       <c r="J43">
-        <v>4.1666666666666664E-2</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="K43">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L43">
         <v>0.10416666666666667</v>
@@ -2323,10 +2323,10 @@
         <v>10</v>
       </c>
       <c r="N43">
-        <v>0.15625</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="O43">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -2340,10 +2340,10 @@
         <v>25</v>
       </c>
       <c r="D44">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44">
         <v>0.16</v>
@@ -2352,10 +2352,10 @@
         <v>4</v>
       </c>
       <c r="H44">
-        <v>0.28000000000000003</v>
+        <v>0.32</v>
       </c>
       <c r="I44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -2387,28 +2387,28 @@
         <v>28</v>
       </c>
       <c r="D45">
-        <v>0.39285714285714285</v>
+        <v>0.35714285714285715</v>
       </c>
       <c r="E45">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F45">
-        <v>0.39285714285714285</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="G45">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H45">
-        <v>0.4642857142857143</v>
+        <v>0.5</v>
       </c>
       <c r="I45">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J45">
-        <v>3.5714285714285712E-2</v>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45">
         <v>0.14285714285714285</v>
@@ -2487,10 +2487,10 @@
         <v>2</v>
       </c>
       <c r="F47">
-        <v>9.0909090909090912E-2</v>
+        <v>0.12121212121212122</v>
       </c>
       <c r="G47">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H47">
         <v>0.18181818181818182</v>
@@ -2511,10 +2511,10 @@
         <v>2</v>
       </c>
       <c r="N47">
-        <v>9.0909090909090912E-2</v>
+        <v>6.0606060606060608E-2</v>
       </c>
       <c r="O47">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -2540,16 +2540,16 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>0.12820512820512819</v>
+        <v>0.10256410256410256</v>
       </c>
       <c r="I48">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>5.128205128205128E-2</v>
+        <v>2.564102564102564E-2</v>
       </c>
       <c r="K48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0.10256410256410256</v>
@@ -2558,10 +2558,10 @@
         <v>4</v>
       </c>
       <c r="N48">
-        <v>0.15384615384615385</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="O48">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -2593,10 +2593,10 @@
         <v>4</v>
       </c>
       <c r="J49">
-        <v>3.5714285714285712E-2</v>
+        <v>5.3571428571428568E-2</v>
       </c>
       <c r="K49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L49">
         <v>5.3571428571428568E-2</v>
@@ -2652,10 +2652,10 @@
         <v>2</v>
       </c>
       <c r="N50">
-        <v>8.5106382978723402E-2</v>
+        <v>0.10638297872340426</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -2675,10 +2675,10 @@
         <v>3</v>
       </c>
       <c r="F51">
-        <v>6.6666666666666666E-2</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H51">
         <v>8.8888888888888892E-2</v>
@@ -2693,16 +2693,16 @@
         <v>3</v>
       </c>
       <c r="L51">
-        <v>0.1111111111111111</v>
+        <v>8.8888888888888892E-2</v>
       </c>
       <c r="M51">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>0.13333333333333333</v>
+        <v>0.15555555555555556</v>
       </c>
       <c r="O51">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -2728,10 +2728,10 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <v>0.05</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -2746,10 +2746,10 @@
         <v>1</v>
       </c>
       <c r="N52">
-        <v>0.125</v>
+        <v>7.4999999999999997E-2</v>
       </c>
       <c r="O52">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -2810,10 +2810,10 @@
         <v>38</v>
       </c>
       <c r="D54">
-        <v>5.2631578947368418E-2</v>
+        <v>2.6315789473684209E-2</v>
       </c>
       <c r="E54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F54">
         <v>7.8947368421052627E-2</v>
@@ -2863,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>6.8965517241379309E-2</v>
+        <v>3.4482758620689655E-2</v>
       </c>
       <c r="G55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>0.10344827586206896</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="I55">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J55">
         <v>6.8965517241379309E-2</v>
@@ -2881,16 +2881,16 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>6.8965517241379309E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="M55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N55">
-        <v>0.17241379310344829</v>
+        <v>0.13793103448275862</v>
       </c>
       <c r="O55">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
